--- a/14.信息台帐管理6.0/template.xlsx
+++ b/14.信息台帐管理6.0/template.xlsx
@@ -1,34 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythoncode\14.信息台帐管理6.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
-    <sheet name="绑定表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="绑定表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>192.168.1.11</t>
+  </si>
+  <si>
+    <t>李欢</t>
+  </si>
+  <si>
+    <t>鼎立科技</t>
+  </si>
+  <si>
+    <t>192.168.111.222</t>
+  </si>
+  <si>
+    <t>2222-bbbb-33ab</t>
+  </si>
+  <si>
+    <t>弗兰克</t>
+  </si>
+  <si>
+    <t>信通公司</t>
+  </si>
+  <si>
+    <t>1932-addc-3322</t>
+  </si>
+  <si>
+    <t>刘雪</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>172.31.66.22</t>
+  </si>
+  <si>
+    <t>00aa-ccee-aa22</t>
+  </si>
+  <si>
+    <t>陈宇</t>
+  </si>
+  <si>
+    <t>科技部</t>
+  </si>
+  <si>
+    <t>10.228.199.32</t>
+  </si>
+  <si>
+    <t>2dc2-32ab-90cb</t>
+  </si>
+  <si>
+    <t>徐爱</t>
+  </si>
+  <si>
+    <t>人资部</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>00c0-32a0-fedd</t>
+  </si>
+  <si>
+    <t>托马斯</t>
+  </si>
+  <si>
+    <t>保安部</t>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+  </si>
+  <si>
+    <t>94de-3322-abda</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,12 +146,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,218 +448,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>刘继平</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖北恒盛电脑</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>192.168.1.11</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>aacc-92ab-1312</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>刘继平</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>湖北恒盛电脑</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>192.168.1.11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>aacc-92ab-1312</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>李欢</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>鼎立科技</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>192.168.111.222</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2222-bbbb-33ab</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>弗兰克</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>信通公司</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>192.168.1.11</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1932-addc-3322</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>刘雪</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>财务部</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>172.31.66.22</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>00aa-ccee-aa22</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>陈宇</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>科技部</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.228.199.32</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2dc2-32ab-90cb</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>徐爱</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>人资部</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>192.168.10.1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>00c0-32a0-fedd</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>托马斯</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>保安部</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>192.168.10.2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94de-3322-abda</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>